--- a/data/trans_orig/P1431-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1031</v>
+        <v>994</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10260</v>
+        <v>10343</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01388104808092329</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003498816130585987</v>
+        <v>0.003373044446072047</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03480998641641132</v>
+        <v>0.03509051078373233</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -763,19 +763,19 @@
         <v>5003</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1907</v>
+        <v>1882</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10934</v>
+        <v>11903</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01741886734803898</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006637820086619292</v>
+        <v>0.006551184109783956</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03806369398216351</v>
+        <v>0.04143902072587848</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -784,19 +784,19 @@
         <v>9095</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3992</v>
+        <v>4637</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16942</v>
+        <v>17051</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01562718300613923</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006859274962034989</v>
+        <v>0.007967324982947298</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02911105910869256</v>
+        <v>0.02929830516208404</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>290647</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284478</v>
+        <v>284395</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>293707</v>
+        <v>293744</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9861189519190767</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9651900135835886</v>
+        <v>0.9649094892162675</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9965011838694137</v>
+        <v>0.9966269555539279</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>251</v>
@@ -834,19 +834,19 @@
         <v>282242</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>276311</v>
+        <v>275342</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>285338</v>
+        <v>285363</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.982581132651961</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9619363060178364</v>
+        <v>0.958560979274121</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9933621799133807</v>
+        <v>0.9934488158902161</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>529</v>
@@ -855,19 +855,19 @@
         <v>572888</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>565041</v>
+        <v>564932</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>577991</v>
+        <v>577346</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9843728169938608</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9708889408913071</v>
+        <v>0.9707016948379157</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.993140725037965</v>
+        <v>0.9920326750170516</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>7229</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3101</v>
+        <v>3093</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14586</v>
+        <v>14473</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01430008916216985</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006134498793833039</v>
+        <v>0.006117884251018324</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02885277711913437</v>
+        <v>0.02862910963545264</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -980,19 +980,19 @@
         <v>7263</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14795</v>
+        <v>14227</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01389626059374215</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005954275355233974</v>
+        <v>0.00594968880017163</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02830725645182645</v>
+        <v>0.02722108535898643</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -1001,19 +1001,19 @@
         <v>14492</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9019</v>
+        <v>8382</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23448</v>
+        <v>24130</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01409481106194374</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008771457113887365</v>
+        <v>0.00815213967964536</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02280553949520667</v>
+        <v>0.02346880350783184</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>498298</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>490941</v>
+        <v>491054</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>502426</v>
+        <v>502434</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9856999108378302</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9711472228808656</v>
+        <v>0.9713708903645475</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9938655012061669</v>
+        <v>0.9938821157489817</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>472</v>
@@ -1051,19 +1051,19 @@
         <v>515393</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>507861</v>
+        <v>508429</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>519544</v>
+        <v>519546</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9861037394062578</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.971692743548174</v>
+        <v>0.9727789146410138</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.994045724644766</v>
+        <v>0.9940503111998283</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>937</v>
@@ -1072,19 +1072,19 @@
         <v>1013692</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1004736</v>
+        <v>1004054</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1019165</v>
+        <v>1019802</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9859051889380562</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9771944605047934</v>
+        <v>0.9765311964921685</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9912285428861127</v>
+        <v>0.9918478603203547</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>3028</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8441</v>
+        <v>7956</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009344747836114034</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002935583293993286</v>
+        <v>0.002910261451092583</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02604869523932073</v>
+        <v>0.02455335200780723</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7468</v>
+        <v>6392</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006197540705542476</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02189938741473905</v>
+        <v>0.01874335517842491</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1218,19 +1218,19 @@
         <v>5142</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11232</v>
+        <v>11538</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007730982304686828</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002982010288316693</v>
+        <v>0.002987851093021745</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01688905090899662</v>
+        <v>0.0173494039467724</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>321018</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>315605</v>
+        <v>316090</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>323095</v>
+        <v>323103</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9906552521638859</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9739513047606786</v>
+        <v>0.9754466479921927</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9970644167060068</v>
+        <v>0.9970897385489075</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>315</v>
@@ -1268,7 +1268,7 @@
         <v>338907</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>333552</v>
+        <v>334628</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>341020</v>
@@ -1277,7 +1277,7 @@
         <v>0.9938024592944575</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9781006125852608</v>
+        <v>0.9812566448215752</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1289,19 +1289,19 @@
         <v>659924</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>653834</v>
+        <v>653528</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>663083</v>
+        <v>663079</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9922690176953132</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9831109490910034</v>
+        <v>0.9826505960532274</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9970179897116833</v>
+        <v>0.9970121489069783</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>4538</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1081</v>
+        <v>1339</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12000</v>
+        <v>11437</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01213330518370592</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002891045798494986</v>
+        <v>0.003579682792942682</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03208769899662119</v>
+        <v>0.03058250923855414</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1414,19 +1414,19 @@
         <v>10096</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5130</v>
+        <v>4848</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17662</v>
+        <v>17501</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0259581022188714</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01319051242856359</v>
+        <v>0.01246391613931506</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0454082477938306</v>
+        <v>0.04499572874472224</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1435,19 +1435,19 @@
         <v>14634</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8441</v>
+        <v>8063</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23658</v>
+        <v>24037</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01918132616818717</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01106395552593801</v>
+        <v>0.0105682766128615</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03100947516314046</v>
+        <v>0.03150645375271129</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>369444</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>361982</v>
+        <v>362545</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>372901</v>
+        <v>372643</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9878666948162941</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9679123010033789</v>
+        <v>0.969417490761446</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.997108954201505</v>
+        <v>0.9964203172070573</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>361</v>
@@ -1485,19 +1485,19 @@
         <v>378855</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>371289</v>
+        <v>371450</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>383821</v>
+        <v>384103</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9740418977811286</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9545917522061693</v>
+        <v>0.9550042712552778</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9868094875714364</v>
+        <v>0.9875360838606849</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>701</v>
@@ -1506,19 +1506,19 @@
         <v>748299</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>739275</v>
+        <v>738896</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>754492</v>
+        <v>754870</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9808186738318129</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9689905248368595</v>
+        <v>0.9684935462472888</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.988936044474062</v>
+        <v>0.9894317233871386</v>
       </c>
     </row>
     <row r="15">
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7552</v>
+        <v>7439</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009861402080158165</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03551715868444567</v>
+        <v>0.03498670469744763</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1631,19 +1631,19 @@
         <v>8810</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3904</v>
+        <v>3973</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16465</v>
+        <v>16729</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04011781192972533</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01777666635336118</v>
+        <v>0.01809280565768843</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07498140314719395</v>
+        <v>0.0761843304700915</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1652,19 +1652,19 @@
         <v>10906</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5891</v>
+        <v>5277</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20247</v>
+        <v>20123</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02523367496234119</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01363065068091749</v>
+        <v>0.01220827123552506</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04684512912266405</v>
+        <v>0.04655819375367352</v>
       </c>
     </row>
     <row r="17">
@@ -1681,7 +1681,7 @@
         <v>210521</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>205066</v>
+        <v>205179</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>212618</v>
@@ -1690,7 +1690,7 @@
         <v>0.9901385979198418</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9644828413155528</v>
+        <v>0.9650132953025524</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1702,19 +1702,19 @@
         <v>210781</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>203126</v>
+        <v>202862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215687</v>
+        <v>215618</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9598821880702747</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.925018596852806</v>
+        <v>0.9238156695299085</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9822233336466388</v>
+        <v>0.9819071943423116</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>398</v>
@@ -1723,19 +1723,19 @@
         <v>421303</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>411962</v>
+        <v>412086</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>426318</v>
+        <v>426932</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9747663250376588</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.953154870877336</v>
+        <v>0.9534418062463267</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9863693493190826</v>
+        <v>0.987791728764475</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>4087</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1083</v>
+        <v>1047</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10237</v>
+        <v>9368</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01491673232382808</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003954426916601484</v>
+        <v>0.003820691332501911</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0373636158556351</v>
+        <v>0.03419254080972599</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1848,19 +1848,19 @@
         <v>2842</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7654</v>
+        <v>7478</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0102197173213596</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003371624525412366</v>
+        <v>0.003351969696242951</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02752216792045779</v>
+        <v>0.02689109441246748</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1869,19 +1869,19 @@
         <v>6929</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2942</v>
+        <v>2955</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14712</v>
+        <v>14887</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01255072089586571</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005328275319097091</v>
+        <v>0.005352750887198875</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02664906167440817</v>
+        <v>0.02696560424020083</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>269894</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263744</v>
+        <v>264613</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>272898</v>
+        <v>272934</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9850832676761719</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.962636384144365</v>
+        <v>0.9658074591902738</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9960455730833985</v>
+        <v>0.996179308667498</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>265</v>
@@ -1919,19 +1919,19 @@
         <v>275254</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>270442</v>
+        <v>270618</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277158</v>
+        <v>277164</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9897802826786404</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9724778320795421</v>
+        <v>0.9731089055875317</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9966283754745876</v>
+        <v>0.996648030303757</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>522</v>
@@ -1940,19 +1940,19 @@
         <v>545148</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>537365</v>
+        <v>537190</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>549135</v>
+        <v>549122</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9874492791041343</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9733509383255917</v>
+        <v>0.9730343957597988</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9946717246809028</v>
+        <v>0.9946472491128011</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>7292</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2909</v>
+        <v>3033</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16019</v>
+        <v>16513</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01100169298354835</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004388832878068364</v>
+        <v>0.004576150035232021</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02416924122619292</v>
+        <v>0.02491439538061065</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2065,19 +2065,19 @@
         <v>4074</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10275</v>
+        <v>9361</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005871840418138341</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001492848586806288</v>
+        <v>0.001468359214463941</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01480818856034949</v>
+        <v>0.01349136439969117</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -2086,19 +2086,19 @@
         <v>11366</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5324</v>
+        <v>5182</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21628</v>
+        <v>22057</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008378033949422672</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003924088779612654</v>
+        <v>0.003819747744021367</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0159423488686374</v>
+        <v>0.0162585066675512</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>655496</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>646769</v>
+        <v>646275</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>659879</v>
+        <v>659755</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9889983070164516</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9758307587738064</v>
+        <v>0.975085604619389</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9956111671219317</v>
+        <v>0.995423849964768</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>632</v>
@@ -2136,19 +2136,19 @@
         <v>689779</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>683578</v>
+        <v>684492</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>692817</v>
+        <v>692834</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9941281595818616</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9851918114396507</v>
+        <v>0.9865086356003089</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9985071514131937</v>
+        <v>0.998531640785536</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1244</v>
@@ -2157,19 +2157,19 @@
         <v>1345275</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1335013</v>
+        <v>1334584</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1351317</v>
+        <v>1351459</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9916219660505773</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9840576511313626</v>
+        <v>0.9837414933324488</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9960759112203873</v>
+        <v>0.9961802522559786</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>8605</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4188</v>
+        <v>4210</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15358</v>
+        <v>16292</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01104458417021243</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0053751518674283</v>
+        <v>0.005403073149025578</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01971262404351981</v>
+        <v>0.02091083981353135</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -2282,19 +2282,19 @@
         <v>12800</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7450</v>
+        <v>7411</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21258</v>
+        <v>22463</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01556046498620928</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.009057015573846963</v>
+        <v>0.009009689257882173</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02584309400911269</v>
+        <v>0.02730744513284047</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -2303,19 +2303,19 @@
         <v>21405</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13814</v>
+        <v>12978</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32653</v>
+        <v>32276</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01336381896678097</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008625001175419467</v>
+        <v>0.008102606926470454</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02038685346637605</v>
+        <v>0.02015165090758859</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>770493</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>763740</v>
+        <v>762806</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>774910</v>
+        <v>774888</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9889554158297875</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9802873759564802</v>
+        <v>0.9790891601864686</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9946248481325717</v>
+        <v>0.9945969268509744</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>744</v>
@@ -2353,19 +2353,19 @@
         <v>809778</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>801320</v>
+        <v>800115</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>815128</v>
+        <v>815167</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9844395350137908</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9741569059908873</v>
+        <v>0.9726925548671593</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.990942984426153</v>
+        <v>0.9909903107421176</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1453</v>
@@ -2374,19 +2374,19 @@
         <v>1580271</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1569023</v>
+        <v>1569400</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1587862</v>
+        <v>1588698</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.986636181033219</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9796131465336237</v>
+        <v>0.9798483490924115</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9913749988245805</v>
+        <v>0.9918973930735296</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>40966</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>30102</v>
+        <v>28981</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>55982</v>
+        <v>55757</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0119547680229006</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00878426297118399</v>
+        <v>0.008457175238879937</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01633662174423957</v>
+        <v>0.01627103143009564</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>51</v>
@@ -2499,19 +2499,19 @@
         <v>53002</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>40169</v>
+        <v>39613</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>69261</v>
+        <v>69235</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01491332989288517</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01130261799665063</v>
+        <v>0.01114603551627663</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01948837145255604</v>
+        <v>0.01948089861811313</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>89</v>
@@ -2520,19 +2520,19 @@
         <v>93968</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>76253</v>
+        <v>77110</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>115940</v>
+        <v>114893</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01346100598722568</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01092330959690509</v>
+        <v>0.01104602755535382</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01660850358912068</v>
+        <v>0.01645849259779075</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>3385813</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3370797</v>
+        <v>3371022</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3396677</v>
+        <v>3397798</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9880452319770994</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9836633782557604</v>
+        <v>0.9837289685699042</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.991215737028816</v>
+        <v>0.99154282476112</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3244</v>
@@ -2570,19 +2570,19 @@
         <v>3500988</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3484729</v>
+        <v>3484755</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3513821</v>
+        <v>3514377</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9850866701071148</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.980511628547444</v>
+        <v>0.9805191013818869</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9886973820033493</v>
+        <v>0.9888539644837234</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6415</v>
@@ -2591,19 +2591,19 @@
         <v>6886801</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6864829</v>
+        <v>6865876</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6904516</v>
+        <v>6903659</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9865389940127743</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9833914964108793</v>
+        <v>0.983541507402209</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9890766904030949</v>
+        <v>0.9889539724446462</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>4740</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1745</v>
+        <v>1783</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10738</v>
+        <v>10332</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01613569371313272</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005940787326440588</v>
+        <v>0.00606993282085264</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0365550409061896</v>
+        <v>0.03517156763524364</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2960,19 +2960,19 @@
         <v>6245</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3006</v>
+        <v>2125</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13149</v>
+        <v>13161</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02163226881369543</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01041219325824734</v>
+        <v>0.007362230173721083</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04554474084088989</v>
+        <v>0.04558635066197847</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2981,19 +2981,19 @@
         <v>10985</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6036</v>
+        <v>5782</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19047</v>
+        <v>18216</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01886011568358444</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01036325661069104</v>
+        <v>0.009926347868745584</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03269990927397369</v>
+        <v>0.03127474422074177</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +3010,19 @@
         <v>289021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>283023</v>
+        <v>283429</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292016</v>
+        <v>291978</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9838643062868673</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9634449590938103</v>
+        <v>0.9648284323647559</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9940592126735595</v>
+        <v>0.9939300671791473</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>271</v>
@@ -3031,19 +3031,19 @@
         <v>282458</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>275554</v>
+        <v>275542</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>285697</v>
+        <v>286578</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9783677311863046</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9544552591591102</v>
+        <v>0.9544136493380216</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9895878067417527</v>
+        <v>0.9926377698262789</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>532</v>
@@ -3052,19 +3052,19 @@
         <v>571479</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>563417</v>
+        <v>564248</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>576428</v>
+        <v>576682</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9811398843164155</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9673000907260263</v>
+        <v>0.9687252557792582</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.989636743389309</v>
+        <v>0.9900736521312544</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>6414</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2620</v>
+        <v>2163</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12948</v>
+        <v>12933</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01276238639944889</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005213801573929513</v>
+        <v>0.004303932197404443</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02576399337307334</v>
+        <v>0.0257333851318192</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -3177,19 +3177,19 @@
         <v>5315</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2031</v>
+        <v>2043</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11854</v>
+        <v>11908</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01016010549133489</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003881946246727237</v>
+        <v>0.003906021121119341</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02266118406318529</v>
+        <v>0.02276434470432284</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -3198,19 +3198,19 @@
         <v>11729</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5470</v>
+        <v>6228</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20397</v>
+        <v>20253</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01143522890683274</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005332894891318306</v>
+        <v>0.006072067721138057</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01988644064846834</v>
+        <v>0.01974620576396427</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>496161</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>489627</v>
+        <v>489642</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>499955</v>
+        <v>500412</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9872376136005511</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9742360066269267</v>
+        <v>0.9742666148681808</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9947861984260691</v>
+        <v>0.9956960678025956</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>479</v>
@@ -3248,19 +3248,19 @@
         <v>517769</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>511230</v>
+        <v>511176</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>521053</v>
+        <v>521041</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9898398945086651</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9773388159368146</v>
+        <v>0.9772356552956767</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9961180537532728</v>
+        <v>0.9960939788788806</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>948</v>
@@ -3269,19 +3269,19 @@
         <v>1013930</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1005262</v>
+        <v>1005406</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1020189</v>
+        <v>1019431</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9885647710931673</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9801135593515315</v>
+        <v>0.9802537942360359</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9946671051086816</v>
+        <v>0.993927932278862</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>2698</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7435</v>
+        <v>7888</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008468375932307615</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002452865244567733</v>
+        <v>0.002425217467399647</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02333878601716168</v>
+        <v>0.02476018777191962</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7257</v>
+        <v>7007</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006848857424596554</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02157829156666033</v>
+        <v>0.02083620604363061</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -3415,19 +3415,19 @@
         <v>5001</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1849</v>
+        <v>1763</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11683</v>
+        <v>10509</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007636676012358936</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0028234709044533</v>
+        <v>0.002692135229429988</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01783971349518207</v>
+        <v>0.01604802607542972</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>315867</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>311130</v>
+        <v>310677</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317784</v>
+        <v>317792</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9915316240676924</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9766612139828383</v>
+        <v>0.9752398122280799</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9975471347554323</v>
+        <v>0.9975747825326003</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>330</v>
@@ -3465,7 +3465,7 @@
         <v>334006</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>329052</v>
+        <v>329302</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>336309</v>
@@ -3474,7 +3474,7 @@
         <v>0.9931511425754035</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9784217084333398</v>
+        <v>0.9791637939563693</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3486,19 +3486,19 @@
         <v>649873</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>643191</v>
+        <v>644365</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653025</v>
+        <v>653111</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.992363323987641</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9821602865048177</v>
+        <v>0.9839519739245702</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9971765290955467</v>
+        <v>0.99730786477057</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>7030</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2864</v>
+        <v>2749</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13826</v>
+        <v>14176</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01900276197659642</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007741046736657623</v>
+        <v>0.007430242448388923</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03736988835370091</v>
+        <v>0.03831810138870567</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -3611,19 +3611,19 @@
         <v>6848</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2508</v>
+        <v>2426</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13515</v>
+        <v>14207</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01768181749314928</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006475660295015014</v>
+        <v>0.00626360944645124</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03489749756525078</v>
+        <v>0.0366842664768716</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -3632,19 +3632,19 @@
         <v>13878</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7486</v>
+        <v>8122</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23103</v>
+        <v>23928</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01832718406851742</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009886269336442164</v>
+        <v>0.01072547836472668</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03050971425468147</v>
+        <v>0.03159815803132347</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>362934</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>356138</v>
+        <v>355788</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367100</v>
+        <v>367215</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9809972380234036</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9626301116462992</v>
+        <v>0.9616818986112945</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9922589532633425</v>
+        <v>0.9925697575516111</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>352</v>
@@ -3682,19 +3682,19 @@
         <v>380435</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>373768</v>
+        <v>373076</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>384775</v>
+        <v>384857</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9823181825068508</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9651025024347497</v>
+        <v>0.9633157335231284</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9935243397049854</v>
+        <v>0.9937363905535488</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>699</v>
@@ -3703,19 +3703,19 @@
         <v>743369</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>734144</v>
+        <v>733319</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>749761</v>
+        <v>749125</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9816728159314826</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.969490285745317</v>
+        <v>0.9684018419686758</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9901137306635577</v>
+        <v>0.9892745216352733</v>
       </c>
     </row>
     <row r="15">
@@ -3807,19 +3807,19 @@
         <v>5556</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12024</v>
+        <v>12554</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02630509253970545</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009340554735872014</v>
+        <v>0.009350542581755033</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05692784999336701</v>
+        <v>0.05943337460007662</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3828,19 +3828,19 @@
         <v>4466</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10165</v>
+        <v>11047</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02043171805154315</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005436861841831792</v>
+        <v>0.005425638274632396</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04650416383964304</v>
+        <v>0.05054027546240292</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -3849,19 +3849,19 @@
         <v>10022</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4707</v>
+        <v>4994</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18554</v>
+        <v>17834</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02331807667577319</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01095099793119457</v>
+        <v>0.01161958350881269</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04316827418386655</v>
+        <v>0.04149407779494803</v>
       </c>
     </row>
     <row r="17">
@@ -3878,19 +3878,19 @@
         <v>205665</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199197</v>
+        <v>198667</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209248</v>
+        <v>209246</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9736949074602945</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9430721500066326</v>
+        <v>0.9405666253999234</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.990659445264128</v>
+        <v>0.9906494574182449</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>219</v>
@@ -3899,19 +3899,19 @@
         <v>214121</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>208422</v>
+        <v>207540</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217399</v>
+        <v>217401</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9795682819484568</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9534958361603566</v>
+        <v>0.949459724537597</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9945631381581682</v>
+        <v>0.9945743617253676</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>426</v>
@@ -3920,19 +3920,19 @@
         <v>419786</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>411254</v>
+        <v>411974</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>425101</v>
+        <v>424814</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9766819233242268</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9568317258161333</v>
+        <v>0.9585059222050513</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9890490020688053</v>
+        <v>0.9883804164911871</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>3607</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9163</v>
+        <v>9528</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01370688570067163</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003599699407021225</v>
+        <v>0.003602272562417375</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03482322643299022</v>
+        <v>0.03621103060810737</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -4045,19 +4045,19 @@
         <v>10542</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5974</v>
+        <v>5170</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18383</v>
+        <v>18494</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03860094006695779</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02187305265036892</v>
+        <v>0.01892983578401729</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06730973376007554</v>
+        <v>0.06771484642863559</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -4066,19 +4066,19 @@
         <v>14149</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8122</v>
+        <v>8126</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24206</v>
+        <v>23457</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02638584480829173</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01514653330800064</v>
+        <v>0.01515373435310731</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04513964823384869</v>
+        <v>0.04374426595224169</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>259516</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253960</v>
+        <v>253595</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262176</v>
+        <v>262175</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9862931142993284</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9651767735670096</v>
+        <v>0.9637889693918923</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9964003005929788</v>
+        <v>0.9963977274375826</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>253</v>
@@ -4116,19 +4116,19 @@
         <v>262573</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>254732</v>
+        <v>254621</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>267141</v>
+        <v>267945</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9613990599330422</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9326902662399241</v>
+        <v>0.9322851535713644</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.978126947349631</v>
+        <v>0.9810701642159826</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>508</v>
@@ -4137,19 +4137,19 @@
         <v>522089</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>512032</v>
+        <v>512781</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>528116</v>
+        <v>528112</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9736141551917082</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9548603517661514</v>
+        <v>0.9562557340477583</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9848534666919994</v>
+        <v>0.9848462656468925</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>5001</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1941</v>
+        <v>1910</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11128</v>
+        <v>11396</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007616619678690365</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002956790987209847</v>
+        <v>0.002908371631530347</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01694870154635566</v>
+        <v>0.01735725231134303</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -4262,19 +4262,19 @@
         <v>8201</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3340</v>
+        <v>3527</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16879</v>
+        <v>15656</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01186375172202988</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004831271905961891</v>
+        <v>0.005101522131514233</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02441591748151042</v>
+        <v>0.02264672864498212</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -4283,19 +4283,19 @@
         <v>13202</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6970</v>
+        <v>6858</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23244</v>
+        <v>21902</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009794912923141653</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005171156022071182</v>
+        <v>0.005087912021257826</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01724555985207628</v>
+        <v>0.01624929608305151</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>651557</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>645430</v>
+        <v>645162</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>654617</v>
+        <v>654648</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9923833803213097</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9830512984536446</v>
+        <v>0.9826427476886577</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9970432090127901</v>
+        <v>0.9970916283684697</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>639</v>
@@ -4333,19 +4333,19 @@
         <v>683093</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>674415</v>
+        <v>675638</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>687954</v>
+        <v>687767</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9881362482779701</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9755840825184894</v>
+        <v>0.9773532713550179</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.995168728094038</v>
+        <v>0.9948984778684857</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1214</v>
@@ -4354,19 +4354,19 @@
         <v>1334650</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1324608</v>
+        <v>1325950</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1340882</v>
+        <v>1340994</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9902050870768584</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9827544401479233</v>
+        <v>0.9837507039169481</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9948288439779288</v>
+        <v>0.994912087978742</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>10426</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5193</v>
+        <v>5262</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18961</v>
+        <v>19142</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01339104312832679</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006669676577406948</v>
+        <v>0.006758982647087992</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02435327983323934</v>
+        <v>0.02458625019651724</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -4479,19 +4479,19 @@
         <v>12905</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6314</v>
+        <v>6977</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21187</v>
+        <v>22288</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01562034926335949</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007642604331964078</v>
+        <v>0.008444831974945714</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02564528624253929</v>
+        <v>0.02697715754600851</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -4500,19 +4500,19 @@
         <v>23331</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14635</v>
+        <v>14720</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34799</v>
+        <v>34392</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01453874785959192</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00912010720639893</v>
+        <v>0.009172842141574475</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02168520596097442</v>
+        <v>0.0214311638107138</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>768157</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>759622</v>
+        <v>759441</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>773390</v>
+        <v>773321</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9866089568716732</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9756467201667608</v>
+        <v>0.9754137498034828</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9933303234225932</v>
+        <v>0.9932410173529121</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>744</v>
@@ -4550,19 +4550,19 @@
         <v>813262</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>804980</v>
+        <v>803879</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>819853</v>
+        <v>819190</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9843796507366405</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9743547137574605</v>
+        <v>0.9730228424539913</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9923573956680358</v>
+        <v>0.9915551680250541</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1484</v>
@@ -4571,19 +4571,19 @@
         <v>1581419</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1569951</v>
+        <v>1570358</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1590115</v>
+        <v>1590030</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.985461252140408</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9783147940390255</v>
+        <v>0.9785688361892861</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9908798927936011</v>
+        <v>0.9908271578584256</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>45472</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>33732</v>
+        <v>33377</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>60813</v>
+        <v>59623</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01339630138834069</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009937575783645087</v>
+        <v>0.009833096679855323</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01791608973182475</v>
+        <v>0.01756527888694</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>51</v>
@@ -4696,19 +4696,19 @@
         <v>56826</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>42442</v>
+        <v>42703</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>74647</v>
+        <v>74681</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01603198674479395</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01197402210086721</v>
+        <v>0.01204760113647586</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02105977720290897</v>
+        <v>0.02106918809075865</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>96</v>
@@ -4717,19 +4717,19 @@
         <v>102298</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>82074</v>
+        <v>83789</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>121979</v>
+        <v>126312</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01474266864430109</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0118280687226555</v>
+        <v>0.01207521522021723</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01757903912709775</v>
+        <v>0.01820344553100368</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>3348878</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3333537</v>
+        <v>3334727</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3360618</v>
+        <v>3360973</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9866036986116593</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9820839102681754</v>
+        <v>0.9824347211130602</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9900624242163549</v>
+        <v>0.9901669033201447</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3287</v>
@@ -4767,19 +4767,19 @@
         <v>3487716</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3469895</v>
+        <v>3469861</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3502100</v>
+        <v>3501839</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.983968013255206</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9789402227970909</v>
+        <v>0.9789308119092414</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9880259778991328</v>
+        <v>0.9879523988635239</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6473</v>
@@ -4788,19 +4788,19 @@
         <v>6836594</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6816913</v>
+        <v>6812580</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6856818</v>
+        <v>6855103</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9852573313556989</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9824209608729022</v>
+        <v>0.9817965544689966</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9881719312773445</v>
+        <v>0.9879247847797831</v>
       </c>
     </row>
     <row r="30">
